--- a/SchedulingData/dynamic10/pso/scheduling2_6.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_6.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>273.8</v>
+        <v>253.6</v>
       </c>
       <c r="D2" t="n">
-        <v>306.12</v>
+        <v>299.84</v>
       </c>
       <c r="E2" t="n">
-        <v>11.028</v>
+        <v>12.296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>253.14</v>
+        <v>235.86</v>
       </c>
       <c r="D3" t="n">
-        <v>297.42</v>
+        <v>309.82</v>
       </c>
       <c r="E3" t="n">
-        <v>11.928</v>
+        <v>13.668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>217.66</v>
+        <v>228</v>
       </c>
       <c r="D4" t="n">
-        <v>265.36</v>
+        <v>282.52</v>
       </c>
       <c r="E4" t="n">
-        <v>15.084</v>
+        <v>12.948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>262.18</v>
+        <v>247.64</v>
       </c>
       <c r="D5" t="n">
-        <v>307.48</v>
+        <v>310.14</v>
       </c>
       <c r="E5" t="n">
-        <v>12.332</v>
+        <v>13.616</v>
       </c>
     </row>
     <row r="6">
@@ -542,150 +542,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>239.18</v>
+        <v>309.82</v>
       </c>
       <c r="D6" t="n">
-        <v>273.66</v>
+        <v>358.06</v>
       </c>
       <c r="E6" t="n">
-        <v>13.284</v>
+        <v>10.964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>307.48</v>
+        <v>282.52</v>
       </c>
       <c r="D7" t="n">
-        <v>382.24</v>
+        <v>340.98</v>
       </c>
       <c r="E7" t="n">
-        <v>9.956</v>
+        <v>10.212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>265.36</v>
+        <v>310.14</v>
       </c>
       <c r="D8" t="n">
-        <v>314.88</v>
+        <v>337.34</v>
       </c>
       <c r="E8" t="n">
-        <v>12.752</v>
+        <v>11.536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>297.42</v>
+        <v>235.8</v>
       </c>
       <c r="D9" t="n">
-        <v>346.38</v>
+        <v>277.56</v>
       </c>
       <c r="E9" t="n">
-        <v>8.651999999999999</v>
+        <v>13.724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>306.12</v>
+        <v>340.98</v>
       </c>
       <c r="D10" t="n">
-        <v>359.46</v>
+        <v>376.76</v>
       </c>
       <c r="E10" t="n">
-        <v>8.324</v>
+        <v>7.764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>273.66</v>
+        <v>376.76</v>
       </c>
       <c r="D11" t="n">
-        <v>309.44</v>
+        <v>416.14</v>
       </c>
       <c r="E11" t="n">
-        <v>10.836</v>
+        <v>4.956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>275.84</v>
+        <v>277.56</v>
       </c>
       <c r="D12" t="n">
-        <v>329.3</v>
+        <v>351.36</v>
       </c>
       <c r="E12" t="n">
-        <v>14.16</v>
+        <v>10.424</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>346.38</v>
+        <v>351.36</v>
       </c>
       <c r="D13" t="n">
-        <v>410.48</v>
+        <v>405.02</v>
       </c>
       <c r="E13" t="n">
-        <v>5.352</v>
+        <v>7.668</v>
       </c>
     </row>
     <row r="14">
@@ -694,55 +694,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>309.44</v>
+        <v>358.06</v>
       </c>
       <c r="D14" t="n">
-        <v>363.54</v>
+        <v>419.6</v>
       </c>
       <c r="E14" t="n">
-        <v>7.536</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>363.54</v>
+        <v>299.84</v>
       </c>
       <c r="D15" t="n">
-        <v>401.54</v>
+        <v>330.44</v>
       </c>
       <c r="E15" t="n">
-        <v>5.376</v>
+        <v>9.875999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>382.24</v>
+        <v>244.9</v>
       </c>
       <c r="D16" t="n">
-        <v>440.06</v>
+        <v>322.72</v>
       </c>
       <c r="E16" t="n">
-        <v>7.304</v>
+        <v>10.848</v>
       </c>
     </row>
     <row r="17">
@@ -751,74 +751,74 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>314.88</v>
+        <v>330.44</v>
       </c>
       <c r="D17" t="n">
-        <v>380.74</v>
+        <v>399.74</v>
       </c>
       <c r="E17" t="n">
-        <v>10.256</v>
+        <v>6.576</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>380.74</v>
+        <v>419.6</v>
       </c>
       <c r="D18" t="n">
-        <v>419.9</v>
+        <v>459.56</v>
       </c>
       <c r="E18" t="n">
-        <v>6.98</v>
+        <v>5.564</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>329.3</v>
+        <v>337.34</v>
       </c>
       <c r="D19" t="n">
-        <v>406.5</v>
+        <v>390.84</v>
       </c>
       <c r="E19" t="n">
-        <v>12.04</v>
+        <v>8.295999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>440.06</v>
+        <v>322.72</v>
       </c>
       <c r="D20" t="n">
-        <v>496.86</v>
+        <v>378.36</v>
       </c>
       <c r="E20" t="n">
-        <v>5.224</v>
+        <v>7.884</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>419.9</v>
+        <v>399.74</v>
       </c>
       <c r="D21" t="n">
-        <v>454.52</v>
+        <v>486.74</v>
       </c>
       <c r="E21" t="n">
-        <v>4.648</v>
+        <v>4.456</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>496.86</v>
+        <v>405.02</v>
       </c>
       <c r="D22" t="n">
-        <v>543.4</v>
+        <v>447.74</v>
       </c>
       <c r="E22" t="n">
-        <v>2.2</v>
+        <v>5.016</v>
       </c>
     </row>
     <row r="23">
@@ -865,74 +865,74 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>359.46</v>
+        <v>378.36</v>
       </c>
       <c r="D23" t="n">
-        <v>403.22</v>
+        <v>427.68</v>
       </c>
       <c r="E23" t="n">
-        <v>5.568</v>
+        <v>5.552</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>401.54</v>
+        <v>427.68</v>
       </c>
       <c r="D24" t="n">
-        <v>443</v>
+        <v>486.86</v>
       </c>
       <c r="E24" t="n">
-        <v>2.36</v>
+        <v>2.744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>454.52</v>
+        <v>416.14</v>
       </c>
       <c r="D25" t="n">
-        <v>502.22</v>
+        <v>467.1</v>
       </c>
       <c r="E25" t="n">
-        <v>2.008</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>403.22</v>
+        <v>390.84</v>
       </c>
       <c r="D26" t="n">
-        <v>453.96</v>
+        <v>438.54</v>
       </c>
       <c r="E26" t="n">
-        <v>2.604</v>
+        <v>5.656</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>410.48</v>
+        <v>438.54</v>
       </c>
       <c r="D27" t="n">
-        <v>468.88</v>
+        <v>505.56</v>
       </c>
       <c r="E27" t="n">
-        <v>2.112</v>
+        <v>3.064</v>
       </c>
     </row>
   </sheetData>
